--- a/CUC_IEEE39-busSystem.xlsx
+++ b/CUC_IEEE39-busSystem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Dropbox (Personal)\PhDThesis\07_ResearchStay\Clustered-UC\github-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236E632F-EC8B-4E96-B119-909A662C9BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A7E0B1-FB79-45D7-A5A0-98D2B889B905}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="12795" windowHeight="9165" tabRatio="963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="223">
   <si>
     <t>scenarios</t>
   </si>
@@ -256,6 +256,12 @@
     <t>SDduration</t>
   </si>
   <si>
+    <t xml:space="preserve">The MaxDWTime1 Must be equal to MinTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MinTD must be equal to  SDduration + SUduration(max) + minimun time that the unit must be offline  </t>
+  </si>
+  <si>
     <t>SUduration1</t>
   </si>
   <si>
@@ -785,9 +791,6 @@
   </si>
   <si>
     <t>genC09</t>
-  </si>
-  <si>
-    <t>The data is introduced as the centroid of the cluster</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -907,13 +910,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF002060"/>
@@ -922,7 +918,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,11 +929,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -1116,13 +1107,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1297,16 +1287,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -1656,7 +1643,7 @@
   <dimension ref="B1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1713,22 +1700,22 @@
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>1</v>
@@ -1747,13 +1734,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>1</v>
@@ -1788,10 +1775,10 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>1</v>
@@ -1813,10 +1800,10 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>1</v>
@@ -1867,7 +1854,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
       <c r="F12" s="26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="13"/>
@@ -1880,16 +1867,16 @@
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
       <c r="F13" s="40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J13" s="10"/>
     </row>
@@ -1901,7 +1888,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1914,13 +1901,13 @@
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="10"/>
@@ -1952,10 +1939,10 @@
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>1</v>
@@ -1971,16 +1958,14 @@
       <c r="C19" s="8"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="40" t="str">
-        <f>F13</f>
-        <v>gen1</v>
+      <c r="F19" s="40" t="s">
+        <v>161</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="40" t="str">
-        <f>H13</f>
-        <v>gen90</v>
+      <c r="H19" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="10"/>
@@ -2012,10 +1997,10 @@
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>1</v>
@@ -2031,16 +2016,14 @@
       <c r="C23" s="8"/>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="40" t="str">
-        <f>F15</f>
-        <v>genC01</v>
+      <c r="F23" s="40" t="s">
+        <v>214</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="40" t="str">
-        <f>H15</f>
-        <v>genC09</v>
+      <c r="H23" s="40" t="s">
+        <v>222</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="10"/>
@@ -2152,7 +2135,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -2168,7 +2151,7 @@
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="C34" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8" t="s">
@@ -2197,7 +2180,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -2211,7 +2194,7 @@
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="C37" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
@@ -2240,13 +2223,13 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2256,7 +2239,7 @@
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="11"/>
       <c r="C40" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
@@ -2400,7 +2383,7 @@
   <dimension ref="B1:Z97"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2430,11 +2413,7 @@
     <col min="25" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="V1" s="104"/>
-    </row>
+    <row r="1" spans="2:25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -2460,13 +2439,13 @@
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="26"/>
       <c r="E3" s="10"/>
       <c r="G3" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="26"/>
@@ -2476,12 +2455,12 @@
         <v>12</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O3" s="26"/>
       <c r="P3" s="10"/>
       <c r="R3" s="21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -2505,10 +2484,10 @@
         <v>12</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" s="87" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" s="10"/>
       <c r="R4" s="11"/>
@@ -2524,16 +2503,16 @@
       <c r="B5" s="11"/>
       <c r="C5" s="8"/>
       <c r="D5" s="23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K5" s="10"/>
       <c r="M5" s="11"/>
@@ -2545,20 +2524,20 @@
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W5" s="23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X5" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y5" s="24"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="27">
         <v>1569.9746143601963</v>
@@ -2566,13 +2545,13 @@
       <c r="E6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I6" s="27">
-        <v>78.498730718009824</v>
+        <v>156.99746143601965</v>
       </c>
       <c r="J6" s="27">
-        <v>78.498730718009824</v>
+        <v>156.99746143601965</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="61"/>
@@ -2586,10 +2565,10 @@
       <c r="P6" s="10"/>
       <c r="R6" s="11"/>
       <c r="S6" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U6" s="8">
         <v>1</v>
@@ -2608,7 +2587,7 @@
     <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" s="27">
         <v>1655.4047622221813</v>
@@ -2616,13 +2595,13 @@
       <c r="E7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I7" s="27">
-        <v>82.770238111109066</v>
+        <v>165.54047622221813</v>
       </c>
       <c r="J7" s="27">
-        <v>82.770238111109066</v>
+        <v>165.54047622221813</v>
       </c>
       <c r="K7" s="10"/>
       <c r="M7" s="11"/>
@@ -2635,10 +2614,10 @@
       <c r="P7" s="10"/>
       <c r="R7" s="11"/>
       <c r="S7" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U7" s="8">
         <v>1</v>
@@ -2657,7 +2636,7 @@
     <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" s="27">
         <v>1688.3214002896395</v>
@@ -2665,13 +2644,13 @@
       <c r="E8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I8" s="27">
-        <v>84.416070014481988</v>
+        <v>168.83214002896398</v>
       </c>
       <c r="J8" s="27">
-        <v>84.416070014481988</v>
+        <v>168.83214002896398</v>
       </c>
       <c r="K8" s="10"/>
       <c r="M8" s="11"/>
@@ -2684,10 +2663,10 @@
       <c r="P8" s="10"/>
       <c r="R8" s="11"/>
       <c r="S8" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U8" s="8">
         <v>1</v>
@@ -2706,7 +2685,7 @@
     <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9" s="27">
         <v>1709.3652565543041</v>
@@ -2714,13 +2693,13 @@
       <c r="E9" s="10"/>
       <c r="G9" s="11"/>
       <c r="H9" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I9" s="27">
-        <v>85.468262827715208</v>
+        <v>170.93652565543042</v>
       </c>
       <c r="J9" s="27">
-        <v>85.468262827715208</v>
+        <v>170.93652565543042</v>
       </c>
       <c r="K9" s="10"/>
       <c r="M9" s="11"/>
@@ -2733,10 +2712,10 @@
       <c r="P9" s="10"/>
       <c r="R9" s="11"/>
       <c r="S9" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U9" s="8">
         <v>1</v>
@@ -2755,7 +2734,7 @@
     <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
       <c r="C10" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D10" s="27">
         <v>1749.8632211354652</v>
@@ -2763,13 +2742,13 @@
       <c r="E10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I10" s="27">
-        <v>87.49316105677326</v>
+        <v>174.98632211354652</v>
       </c>
       <c r="J10" s="27">
-        <v>87.49316105677326</v>
+        <v>174.98632211354652</v>
       </c>
       <c r="K10" s="10"/>
       <c r="M10" s="11"/>
@@ -2782,10 +2761,10 @@
       <c r="P10" s="10"/>
       <c r="R10" s="11"/>
       <c r="S10" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U10" s="8">
         <v>1</v>
@@ -2804,7 +2783,7 @@
     <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
       <c r="C11" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D11" s="27">
         <v>1806.2486618290309</v>
@@ -2812,13 +2791,13 @@
       <c r="E11" s="10"/>
       <c r="G11" s="11"/>
       <c r="H11" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I11" s="27">
-        <v>90.312433091451553</v>
+        <v>180.62486618290311</v>
       </c>
       <c r="J11" s="27">
-        <v>90.312433091451553</v>
+        <v>180.62486618290311</v>
       </c>
       <c r="K11" s="10"/>
       <c r="M11" s="11"/>
@@ -2831,10 +2810,10 @@
       <c r="P11" s="10"/>
       <c r="R11" s="11"/>
       <c r="S11" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U11" s="8">
         <v>1</v>
@@ -2853,7 +2832,7 @@
     <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D12" s="27">
         <v>2038.6297798684373</v>
@@ -2861,13 +2840,13 @@
       <c r="E12" s="10"/>
       <c r="G12" s="11"/>
       <c r="H12" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I12" s="27">
-        <v>101.93148899342187</v>
+        <v>203.86297798684373</v>
       </c>
       <c r="J12" s="27">
-        <v>101.93148899342187</v>
+        <v>203.86297798684373</v>
       </c>
       <c r="K12" s="10"/>
       <c r="M12" s="11"/>
@@ -2880,10 +2859,10 @@
       <c r="P12" s="10"/>
       <c r="R12" s="11"/>
       <c r="S12" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U12" s="8">
         <v>1</v>
@@ -2902,7 +2881,7 @@
     <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="27">
         <v>2314.1926404691399</v>
@@ -2910,13 +2889,13 @@
       <c r="E13" s="10"/>
       <c r="G13" s="11"/>
       <c r="H13" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I13" s="27">
-        <v>115.709632023457</v>
+        <v>231.41926404691401</v>
       </c>
       <c r="J13" s="27">
-        <v>115.709632023457</v>
+        <v>231.41926404691401</v>
       </c>
       <c r="K13" s="10"/>
       <c r="M13" s="11"/>
@@ -2929,10 +2908,10 @@
       <c r="P13" s="10"/>
       <c r="R13" s="11"/>
       <c r="S13" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U13" s="8">
         <v>1</v>
@@ -2951,7 +2930,7 @@
     <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D14" s="27">
         <v>2685.6829131008426</v>
@@ -2959,13 +2938,13 @@
       <c r="E14" s="10"/>
       <c r="G14" s="11"/>
       <c r="H14" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I14" s="27">
-        <v>134.28414565504212</v>
+        <v>268.56829131008425</v>
       </c>
       <c r="J14" s="27">
-        <v>134.28414565504212</v>
+        <v>268.56829131008425</v>
       </c>
       <c r="K14" s="10"/>
       <c r="M14" s="11"/>
@@ -2978,10 +2957,10 @@
       <c r="P14" s="10"/>
       <c r="R14" s="11"/>
       <c r="S14" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U14" s="8">
         <v>1</v>
@@ -3000,7 +2979,7 @@
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D15" s="27">
         <v>2627.2935096819219</v>
@@ -3008,13 +2987,13 @@
       <c r="E15" s="10"/>
       <c r="G15" s="11"/>
       <c r="H15" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I15" s="27">
-        <v>131.3646754840961</v>
+        <v>262.72935096819219</v>
       </c>
       <c r="J15" s="27">
-        <v>131.3646754840961</v>
+        <v>262.72935096819219</v>
       </c>
       <c r="K15" s="10"/>
       <c r="M15" s="11"/>
@@ -3027,10 +3006,10 @@
       <c r="P15" s="10"/>
       <c r="R15" s="11"/>
       <c r="S15" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U15" s="8">
         <v>1</v>
@@ -3049,7 +3028,7 @@
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D16" s="27">
         <v>2622.9683544553982</v>
@@ -3057,13 +3036,13 @@
       <c r="E16" s="10"/>
       <c r="G16" s="11"/>
       <c r="H16" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I16" s="27">
-        <v>131.14841772276992</v>
+        <v>262.29683544553984</v>
       </c>
       <c r="J16" s="27">
-        <v>131.14841772276992</v>
+        <v>262.29683544553984</v>
       </c>
       <c r="K16" s="10"/>
       <c r="M16" s="11"/>
@@ -3076,10 +3055,10 @@
       <c r="P16" s="10"/>
       <c r="R16" s="11"/>
       <c r="S16" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U16" s="8">
         <v>1</v>
@@ -3098,7 +3077,7 @@
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
       <c r="C17" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D17" s="27">
         <v>2576.9550640152529</v>
@@ -3106,13 +3085,13 @@
       <c r="E17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I17" s="27">
-        <v>128.84775320076264</v>
+        <v>257.69550640152528</v>
       </c>
       <c r="J17" s="27">
-        <v>128.84775320076264</v>
+        <v>257.69550640152528</v>
       </c>
       <c r="K17" s="10"/>
       <c r="M17" s="11"/>
@@ -3125,10 +3104,10 @@
       <c r="P17" s="10"/>
       <c r="R17" s="11"/>
       <c r="S17" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U17" s="8">
         <v>1</v>
@@ -3147,7 +3126,7 @@
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D18" s="27">
         <v>2576.2553552828231</v>
@@ -3155,13 +3134,13 @@
       <c r="E18" s="10"/>
       <c r="G18" s="11"/>
       <c r="H18" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I18" s="27">
-        <v>128.81276776414117</v>
+        <v>257.62553552828234</v>
       </c>
       <c r="J18" s="27">
-        <v>128.81276776414117</v>
+        <v>257.62553552828234</v>
       </c>
       <c r="K18" s="10"/>
       <c r="M18" s="11"/>
@@ -3174,10 +3153,10 @@
       <c r="P18" s="10"/>
       <c r="R18" s="11"/>
       <c r="S18" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U18" s="8">
         <v>1</v>
@@ -3196,7 +3175,7 @@
     <row r="19" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
       <c r="C19" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D19" s="27">
         <v>2721.6422455286838</v>
@@ -3204,13 +3183,13 @@
       <c r="E19" s="10"/>
       <c r="G19" s="11"/>
       <c r="H19" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I19" s="27">
-        <v>136.0821122764342</v>
+        <v>272.1642245528684</v>
       </c>
       <c r="J19" s="27">
-        <v>136.0821122764342</v>
+        <v>272.1642245528684</v>
       </c>
       <c r="K19" s="10"/>
       <c r="M19" s="11"/>
@@ -3223,10 +3202,10 @@
       <c r="P19" s="10"/>
       <c r="R19" s="11"/>
       <c r="S19" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U19" s="8">
         <v>1</v>
@@ -3245,7 +3224,7 @@
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D20" s="27">
         <v>2833.9999999999991</v>
@@ -3253,13 +3232,13 @@
       <c r="E20" s="10"/>
       <c r="G20" s="11"/>
       <c r="H20" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I20" s="27">
-        <v>141.69999999999996</v>
+        <v>283.39999999999992</v>
       </c>
       <c r="J20" s="27">
-        <v>141.69999999999996</v>
+        <v>283.39999999999992</v>
       </c>
       <c r="K20" s="10"/>
       <c r="M20" s="11"/>
@@ -3272,10 +3251,10 @@
       <c r="P20" s="10"/>
       <c r="R20" s="11"/>
       <c r="S20" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U20" s="8">
         <v>1</v>
@@ -3294,7 +3273,7 @@
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D21" s="27">
         <v>2729.5345365660273</v>
@@ -3302,13 +3281,13 @@
       <c r="E21" s="10"/>
       <c r="G21" s="11"/>
       <c r="H21" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I21" s="27">
-        <v>136.47672682830137</v>
+        <v>272.95345365660273</v>
       </c>
       <c r="J21" s="27">
-        <v>136.47672682830137</v>
+        <v>272.95345365660273</v>
       </c>
       <c r="K21" s="10"/>
       <c r="M21" s="11"/>
@@ -3321,10 +3300,10 @@
       <c r="P21" s="10"/>
       <c r="R21" s="11"/>
       <c r="S21" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U21" s="8">
         <v>1</v>
@@ -3343,7 +3322,7 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D22" s="27">
         <v>2637.5917632301139</v>
@@ -3351,13 +3330,13 @@
       <c r="E22" s="10"/>
       <c r="G22" s="11"/>
       <c r="H22" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I22" s="27">
-        <v>131.87958816150569</v>
+        <v>263.75917632301139</v>
       </c>
       <c r="J22" s="27">
-        <v>131.87958816150569</v>
+        <v>263.75917632301139</v>
       </c>
       <c r="K22" s="10"/>
       <c r="M22" s="11"/>
@@ -3370,10 +3349,10 @@
       <c r="P22" s="10"/>
       <c r="R22" s="11"/>
       <c r="S22" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U22" s="8">
         <v>1</v>
@@ -3392,7 +3371,7 @@
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
       <c r="C23" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D23" s="27">
         <v>2677.9841286570013</v>
@@ -3400,13 +3379,13 @@
       <c r="E23" s="10"/>
       <c r="G23" s="11"/>
       <c r="H23" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I23" s="27">
-        <v>133.89920643285006</v>
+        <v>267.79841286570013</v>
       </c>
       <c r="J23" s="27">
-        <v>133.89920643285006</v>
+        <v>267.79841286570013</v>
       </c>
       <c r="K23" s="10"/>
       <c r="M23" s="11"/>
@@ -3419,10 +3398,10 @@
       <c r="P23" s="10"/>
       <c r="R23" s="11"/>
       <c r="S23" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U23" s="8">
         <v>1</v>
@@ -3441,7 +3420,7 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D24" s="27">
         <v>2649.1956159978718</v>
@@ -3449,13 +3428,13 @@
       <c r="E24" s="10"/>
       <c r="G24" s="11"/>
       <c r="H24" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I24" s="27">
-        <v>132.45978079989359</v>
+        <v>264.91956159978719</v>
       </c>
       <c r="J24" s="27">
-        <v>132.45978079989359</v>
+        <v>264.91956159978719</v>
       </c>
       <c r="K24" s="10"/>
       <c r="M24" s="11"/>
@@ -3468,10 +3447,10 @@
       <c r="P24" s="10"/>
       <c r="R24" s="11"/>
       <c r="S24" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U24" s="8">
         <v>1</v>
@@ -3490,7 +3469,7 @@
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D25" s="27">
         <v>2588.8873027628433</v>
@@ -3498,13 +3477,13 @@
       <c r="E25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I25" s="27">
-        <v>129.44436513814216</v>
+        <v>258.88873027628432</v>
       </c>
       <c r="J25" s="27">
-        <v>129.44436513814216</v>
+        <v>258.88873027628432</v>
       </c>
       <c r="K25" s="10"/>
       <c r="M25" s="11"/>
@@ -3517,10 +3496,10 @@
       <c r="P25" s="10"/>
       <c r="R25" s="11"/>
       <c r="S25" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U25" s="8">
         <v>1</v>
@@ -3539,7 +3518,7 @@
     <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D26" s="27">
         <v>2494.3226778848971</v>
@@ -3547,13 +3526,13 @@
       <c r="E26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I26" s="27">
-        <v>124.71613389424486</v>
+        <v>249.43226778848972</v>
       </c>
       <c r="J26" s="27">
-        <v>124.71613389424486</v>
+        <v>249.43226778848972</v>
       </c>
       <c r="K26" s="10"/>
       <c r="M26" s="11"/>
@@ -3566,10 +3545,10 @@
       <c r="P26" s="10"/>
       <c r="R26" s="11"/>
       <c r="S26" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U26" s="8">
         <v>1</v>
@@ -3588,7 +3567,7 @@
     <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D27" s="27">
         <v>2426.3222684170787</v>
@@ -3596,13 +3575,13 @@
       <c r="E27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I27" s="27">
-        <v>121.31611342085394</v>
+        <v>242.63222684170788</v>
       </c>
       <c r="J27" s="27">
-        <v>121.31611342085394</v>
+        <v>242.63222684170788</v>
       </c>
       <c r="K27" s="10"/>
       <c r="M27" s="11"/>
@@ -3615,10 +3594,10 @@
       <c r="P27" s="10"/>
       <c r="R27" s="11"/>
       <c r="S27" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U27" s="8">
         <v>1</v>
@@ -3637,7 +3616,7 @@
     <row r="28" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D28" s="27">
         <v>2276.3116066460452</v>
@@ -3645,13 +3624,13 @@
       <c r="E28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I28" s="27">
-        <v>113.81558033230226</v>
+        <v>227.63116066460452</v>
       </c>
       <c r="J28" s="27">
-        <v>113.81558033230226</v>
+        <v>227.63116066460452</v>
       </c>
       <c r="K28" s="10"/>
       <c r="M28" s="11"/>
@@ -3664,10 +3643,10 @@
       <c r="P28" s="10"/>
       <c r="R28" s="11"/>
       <c r="S28" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U28" s="8">
         <v>1</v>
@@ -3686,7 +3665,7 @@
     <row r="29" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D29" s="27">
         <v>2052.6299639208783</v>
@@ -3694,13 +3673,13 @@
       <c r="E29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I29" s="27">
-        <v>102.63149819604392</v>
+        <v>205.26299639208784</v>
       </c>
       <c r="J29" s="27">
-        <v>102.63149819604392</v>
+        <v>205.26299639208784</v>
       </c>
       <c r="K29" s="10"/>
       <c r="M29" s="11"/>
@@ -3713,10 +3692,10 @@
       <c r="P29" s="10"/>
       <c r="R29" s="11"/>
       <c r="S29" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U29" s="8">
         <v>1</v>
@@ -4663,11 +4642,9 @@
   <sheetPr codeName="Hoja13">
     <tabColor indexed="57"/>
   </sheetPr>
-  <dimension ref="B2:X102"/>
+  <dimension ref="B2:Y102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4697,7 +4674,7 @@
     <col min="25" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -4722,14 +4699,14 @@
       <c r="W2" s="58"/>
       <c r="X2" s="59"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -4750,14 +4727,14 @@
       <c r="W3" s="35"/>
       <c r="X3" s="52"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -4779,7 +4756,7 @@
       <c r="W4" s="36"/>
       <c r="X4" s="53"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -4804,7 +4781,7 @@
       <c r="W5" s="36"/>
       <c r="X5" s="53"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
         <v>10</v>
       </c>
@@ -4831,7 +4808,7 @@
       <c r="W6" s="35"/>
       <c r="X6" s="52"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" s="45"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -4856,11 +4833,11 @@
       <c r="W7" s="36"/>
       <c r="X7" s="53"/>
     </row>
-    <row r="8" spans="2:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="46"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>28</v>
@@ -4872,13 +4849,13 @@
         <v>30</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>15</v>
@@ -4911,23 +4888,23 @@
         <v>37</v>
       </c>
       <c r="U8" s="37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V8" s="37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W8" s="37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="X8" s="50"/>
     </row>
-    <row r="9" spans="2:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="47" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>5</v>
@@ -4988,7 +4965,7 @@
       </c>
       <c r="X9" s="50"/>
     </row>
-    <row r="10" spans="2:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="47" t="s">
         <v>12</v>
       </c>
@@ -5015,10 +4992,10 @@
       <c r="W10" s="23"/>
       <c r="X10" s="44"/>
     </row>
-    <row r="11" spans="2:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="47"/>
       <c r="C11" s="40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D11" s="64">
         <v>30</v>
@@ -5081,11 +5058,12 @@
         <v>70</v>
       </c>
       <c r="X11" s="44"/>
-    </row>
-    <row r="12" spans="2:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y11" s="55"/>
+    </row>
+    <row r="12" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="47"/>
       <c r="C12" s="40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D12" s="64">
         <v>30</v>
@@ -5148,11 +5126,12 @@
         <v>70</v>
       </c>
       <c r="X12" s="44"/>
-    </row>
-    <row r="13" spans="2:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="55"/>
+    </row>
+    <row r="13" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="47"/>
       <c r="C13" s="40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" s="64">
         <v>30</v>
@@ -5215,11 +5194,12 @@
         <v>70</v>
       </c>
       <c r="X13" s="44"/>
-    </row>
-    <row r="14" spans="2:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y13" s="55"/>
+    </row>
+    <row r="14" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="47"/>
       <c r="C14" s="40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D14" s="64">
         <v>30</v>
@@ -5282,11 +5262,12 @@
         <v>70</v>
       </c>
       <c r="X14" s="44"/>
-    </row>
-    <row r="15" spans="2:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y14" s="55"/>
+    </row>
+    <row r="15" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="47"/>
       <c r="C15" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D15" s="64">
         <v>30</v>
@@ -5349,11 +5330,12 @@
         <v>70</v>
       </c>
       <c r="X15" s="44"/>
-    </row>
-    <row r="16" spans="2:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y15" s="55"/>
+    </row>
+    <row r="16" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="47"/>
       <c r="C16" s="40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D16" s="64">
         <v>30</v>
@@ -5416,11 +5398,12 @@
         <v>70</v>
       </c>
       <c r="X16" s="44"/>
-    </row>
-    <row r="17" spans="2:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y16" s="55"/>
+    </row>
+    <row r="17" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="47"/>
       <c r="C17" s="40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D17" s="64">
         <v>30</v>
@@ -5483,11 +5466,12 @@
         <v>70</v>
       </c>
       <c r="X17" s="44"/>
-    </row>
-    <row r="18" spans="2:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="55"/>
+    </row>
+    <row r="18" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="47"/>
       <c r="C18" s="40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D18" s="64">
         <v>30</v>
@@ -5550,11 +5534,12 @@
         <v>70</v>
       </c>
       <c r="X18" s="50"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="55"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B19" s="45"/>
       <c r="C19" s="40" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D19" s="64">
         <v>30</v>
@@ -5617,11 +5602,12 @@
         <v>70</v>
       </c>
       <c r="X19" s="50"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="55"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="45"/>
       <c r="C20" s="40" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D20" s="64">
         <v>30</v>
@@ -5684,11 +5670,12 @@
         <v>70</v>
       </c>
       <c r="X20" s="50"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="55"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="45"/>
       <c r="C21" s="40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D21" s="64">
         <v>24</v>
@@ -5751,11 +5738,12 @@
         <v>30</v>
       </c>
       <c r="X21" s="50"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="55"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="45"/>
       <c r="C22" s="40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D22" s="64">
         <v>24</v>
@@ -5818,11 +5806,14 @@
         <v>30</v>
       </c>
       <c r="X22" s="50"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="45"/>
       <c r="C23" s="40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D23" s="64">
         <v>24</v>
@@ -5885,11 +5876,12 @@
         <v>30</v>
       </c>
       <c r="X23" s="50"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="8"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="45"/>
       <c r="C24" s="40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D24" s="64">
         <v>24</v>
@@ -5952,11 +5944,14 @@
         <v>30</v>
       </c>
       <c r="X24" s="50"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="45"/>
       <c r="C25" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D25" s="64">
         <v>24</v>
@@ -6019,11 +6014,12 @@
         <v>30</v>
       </c>
       <c r="X25" s="50"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="55"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B26" s="45"/>
       <c r="C26" s="40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D26" s="64">
         <v>24</v>
@@ -6086,11 +6082,12 @@
         <v>30</v>
       </c>
       <c r="X26" s="50"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="55"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B27" s="45"/>
       <c r="C27" s="40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D27" s="64">
         <v>24</v>
@@ -6153,11 +6150,12 @@
         <v>30</v>
       </c>
       <c r="X27" s="50"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="55"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B28" s="45"/>
       <c r="C28" s="40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D28" s="64">
         <v>24</v>
@@ -6220,11 +6218,12 @@
         <v>30</v>
       </c>
       <c r="X28" s="50"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="55"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B29" s="45"/>
       <c r="C29" s="40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D29" s="64">
         <v>24</v>
@@ -6287,11 +6286,12 @@
         <v>30</v>
       </c>
       <c r="X29" s="50"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="55"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B30" s="45"/>
       <c r="C30" s="40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D30" s="64">
         <v>24</v>
@@ -6354,11 +6354,12 @@
         <v>30</v>
       </c>
       <c r="X30" s="50"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="55"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B31" s="45"/>
       <c r="C31" s="40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D31" s="64">
         <v>11</v>
@@ -6421,11 +6422,12 @@
         <v>30</v>
       </c>
       <c r="X31" s="50"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="55"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B32" s="45"/>
       <c r="C32" s="40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D32" s="64">
         <v>11</v>
@@ -6488,11 +6490,12 @@
         <v>30</v>
       </c>
       <c r="X32" s="50"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="55"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="45"/>
       <c r="C33" s="40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D33" s="64">
         <v>11</v>
@@ -6555,11 +6558,12 @@
         <v>30</v>
       </c>
       <c r="X33" s="50"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="55"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="45"/>
       <c r="C34" s="40" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D34" s="64">
         <v>11</v>
@@ -6622,11 +6626,12 @@
         <v>30</v>
       </c>
       <c r="X34" s="50"/>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="55"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="45"/>
       <c r="C35" s="40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D35" s="64">
         <v>11</v>
@@ -6689,11 +6694,12 @@
         <v>30</v>
       </c>
       <c r="X35" s="50"/>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="55"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" s="45"/>
       <c r="C36" s="40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D36" s="64">
         <v>11</v>
@@ -6756,11 +6762,12 @@
         <v>30</v>
       </c>
       <c r="X36" s="50"/>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y36" s="55"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="45"/>
       <c r="C37" s="40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D37" s="64">
         <v>11</v>
@@ -6823,11 +6830,12 @@
         <v>30</v>
       </c>
       <c r="X37" s="50"/>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y37" s="55"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="45"/>
       <c r="C38" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D38" s="64">
         <v>11</v>
@@ -6890,11 +6898,12 @@
         <v>30</v>
       </c>
       <c r="X38" s="50"/>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="55"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B39" s="45"/>
       <c r="C39" s="40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="64">
         <v>11</v>
@@ -6957,11 +6966,12 @@
         <v>30</v>
       </c>
       <c r="X39" s="50"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="55"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B40" s="45"/>
       <c r="C40" s="40" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="64">
         <v>11</v>
@@ -7024,11 +7034,12 @@
         <v>30</v>
       </c>
       <c r="X40" s="50"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="55"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B41" s="45"/>
       <c r="C41" s="40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="64">
         <v>2</v>
@@ -7091,11 +7102,12 @@
         <v>100</v>
       </c>
       <c r="X41" s="50"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="55"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B42" s="45"/>
       <c r="C42" s="40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="64">
         <v>2</v>
@@ -7158,11 +7170,12 @@
         <v>100</v>
       </c>
       <c r="X42" s="50"/>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="55"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B43" s="45"/>
       <c r="C43" s="40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="64">
         <v>2</v>
@@ -7225,11 +7238,12 @@
         <v>100</v>
       </c>
       <c r="X43" s="50"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="55"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B44" s="45"/>
       <c r="C44" s="40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="64">
         <v>2</v>
@@ -7292,11 +7306,12 @@
         <v>100</v>
       </c>
       <c r="X44" s="50"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="55"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B45" s="45"/>
       <c r="C45" s="40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D45" s="64">
         <v>2</v>
@@ -7359,11 +7374,12 @@
         <v>100</v>
       </c>
       <c r="X45" s="50"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="55"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" s="45"/>
       <c r="C46" s="40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D46" s="64">
         <v>2</v>
@@ -7426,11 +7442,12 @@
         <v>100</v>
       </c>
       <c r="X46" s="50"/>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="55"/>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B47" s="45"/>
       <c r="C47" s="40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D47" s="64">
         <v>2</v>
@@ -7493,11 +7510,12 @@
         <v>100</v>
       </c>
       <c r="X47" s="50"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="55"/>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B48" s="45"/>
       <c r="C48" s="40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D48" s="64">
         <v>2</v>
@@ -7560,11 +7578,12 @@
         <v>100</v>
       </c>
       <c r="X48" s="50"/>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="55"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B49" s="45"/>
       <c r="C49" s="40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D49" s="64">
         <v>2</v>
@@ -7627,11 +7646,12 @@
         <v>100</v>
       </c>
       <c r="X49" s="50"/>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="55"/>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="45"/>
       <c r="C50" s="40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D50" s="64">
         <v>2</v>
@@ -7694,11 +7714,12 @@
         <v>100</v>
       </c>
       <c r="X50" s="50"/>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="55"/>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="45"/>
       <c r="C51" s="40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D51" s="64">
         <v>8</v>
@@ -7761,11 +7782,12 @@
         <v>80</v>
       </c>
       <c r="X51" s="50"/>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="55"/>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="45"/>
       <c r="C52" s="40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D52" s="64">
         <v>8</v>
@@ -7828,11 +7850,12 @@
         <v>80</v>
       </c>
       <c r="X52" s="50"/>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="55"/>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="45"/>
       <c r="C53" s="40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D53" s="64">
         <v>8</v>
@@ -7895,11 +7918,12 @@
         <v>80</v>
       </c>
       <c r="X53" s="50"/>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="55"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="45"/>
       <c r="C54" s="40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D54" s="64">
         <v>8</v>
@@ -7962,11 +7986,12 @@
         <v>80</v>
       </c>
       <c r="X54" s="50"/>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="55"/>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="45"/>
       <c r="C55" s="40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D55" s="64">
         <v>8</v>
@@ -8029,11 +8054,12 @@
         <v>80</v>
       </c>
       <c r="X55" s="50"/>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="55"/>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="45"/>
       <c r="C56" s="40" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D56" s="64">
         <v>8</v>
@@ -8096,11 +8122,12 @@
         <v>80</v>
       </c>
       <c r="X56" s="50"/>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="55"/>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="45"/>
       <c r="C57" s="40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D57" s="64">
         <v>8</v>
@@ -8163,11 +8190,12 @@
         <v>80</v>
       </c>
       <c r="X57" s="50"/>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="55"/>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B58" s="45"/>
       <c r="C58" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D58" s="64">
         <v>8</v>
@@ -8230,11 +8258,12 @@
         <v>80</v>
       </c>
       <c r="X58" s="50"/>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="55"/>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B59" s="45"/>
       <c r="C59" s="40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D59" s="64">
         <v>8</v>
@@ -8297,11 +8326,12 @@
         <v>80</v>
       </c>
       <c r="X59" s="50"/>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="55"/>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B60" s="45"/>
       <c r="C60" s="40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D60" s="64">
         <v>8</v>
@@ -8364,11 +8394,12 @@
         <v>80</v>
       </c>
       <c r="X60" s="50"/>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="55"/>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B61" s="45"/>
       <c r="C61" s="40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D61" s="64">
         <v>5</v>
@@ -8431,11 +8462,12 @@
         <v>80</v>
       </c>
       <c r="X61" s="50"/>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="55"/>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B62" s="45"/>
       <c r="C62" s="40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D62" s="64">
         <v>5</v>
@@ -8498,11 +8530,12 @@
         <v>80</v>
       </c>
       <c r="X62" s="50"/>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="55"/>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B63" s="45"/>
       <c r="C63" s="40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D63" s="64">
         <v>5</v>
@@ -8565,11 +8598,12 @@
         <v>80</v>
       </c>
       <c r="X63" s="50"/>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="55"/>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B64" s="45"/>
       <c r="C64" s="40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D64" s="64">
         <v>5</v>
@@ -8632,11 +8666,12 @@
         <v>80</v>
       </c>
       <c r="X64" s="50"/>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="55"/>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B65" s="45"/>
       <c r="C65" s="40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D65" s="64">
         <v>5</v>
@@ -8699,11 +8734,12 @@
         <v>80</v>
       </c>
       <c r="X65" s="50"/>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="55"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B66" s="45"/>
       <c r="C66" s="40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D66" s="64">
         <v>5</v>
@@ -8766,11 +8802,12 @@
         <v>80</v>
       </c>
       <c r="X66" s="50"/>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="55"/>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B67" s="45"/>
       <c r="C67" s="40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D67" s="64">
         <v>5</v>
@@ -8833,11 +8870,12 @@
         <v>80</v>
       </c>
       <c r="X67" s="50"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="55"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B68" s="45"/>
       <c r="C68" s="40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D68" s="64">
         <v>5</v>
@@ -8900,11 +8938,12 @@
         <v>80</v>
       </c>
       <c r="X68" s="50"/>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="55"/>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B69" s="45"/>
       <c r="C69" s="40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D69" s="64">
         <v>5</v>
@@ -8967,11 +9006,12 @@
         <v>80</v>
       </c>
       <c r="X69" s="50"/>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="55"/>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B70" s="45"/>
       <c r="C70" s="40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D70" s="64">
         <v>5</v>
@@ -9034,11 +9074,12 @@
         <v>80</v>
       </c>
       <c r="X70" s="50"/>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="55"/>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B71" s="45"/>
       <c r="C71" s="40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D71" s="64">
         <v>1</v>
@@ -9101,11 +9142,12 @@
         <v>200</v>
       </c>
       <c r="X71" s="50"/>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="55"/>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B72" s="45"/>
       <c r="C72" s="40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D72" s="64">
         <v>1</v>
@@ -9168,11 +9210,12 @@
         <v>200</v>
       </c>
       <c r="X72" s="50"/>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="55"/>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B73" s="45"/>
       <c r="C73" s="40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D73" s="64">
         <v>1</v>
@@ -9235,11 +9278,12 @@
         <v>200</v>
       </c>
       <c r="X73" s="50"/>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="55"/>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B74" s="45"/>
       <c r="C74" s="40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D74" s="64">
         <v>1</v>
@@ -9302,11 +9346,12 @@
         <v>200</v>
       </c>
       <c r="X74" s="50"/>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="55"/>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B75" s="45"/>
       <c r="C75" s="40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D75" s="64">
         <v>1</v>
@@ -9369,11 +9414,12 @@
         <v>200</v>
       </c>
       <c r="X75" s="50"/>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="55"/>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B76" s="45"/>
       <c r="C76" s="40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D76" s="64">
         <v>1</v>
@@ -9436,11 +9482,12 @@
         <v>200</v>
       </c>
       <c r="X76" s="50"/>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="55"/>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B77" s="45"/>
       <c r="C77" s="40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D77" s="64">
         <v>1</v>
@@ -9503,11 +9550,12 @@
         <v>200</v>
       </c>
       <c r="X77" s="50"/>
-    </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="55"/>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B78" s="45"/>
       <c r="C78" s="40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D78" s="64">
         <v>1</v>
@@ -9570,11 +9618,12 @@
         <v>200</v>
       </c>
       <c r="X78" s="50"/>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y78" s="55"/>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="45"/>
       <c r="C79" s="40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D79" s="64">
         <v>1</v>
@@ -9637,11 +9686,12 @@
         <v>200</v>
       </c>
       <c r="X79" s="50"/>
-    </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y79" s="55"/>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B80" s="45"/>
       <c r="C80" s="40" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D80" s="64">
         <v>1</v>
@@ -9704,11 +9754,12 @@
         <v>200</v>
       </c>
       <c r="X80" s="50"/>
-    </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="55"/>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B81" s="45"/>
       <c r="C81" s="40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D81" s="64">
         <v>13</v>
@@ -9771,11 +9822,12 @@
         <v>95</v>
       </c>
       <c r="X81" s="50"/>
-    </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="55"/>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B82" s="45"/>
       <c r="C82" s="40" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D82" s="64">
         <v>13</v>
@@ -9838,11 +9890,12 @@
         <v>95</v>
       </c>
       <c r="X82" s="50"/>
-    </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="55"/>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B83" s="45"/>
       <c r="C83" s="40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D83" s="64">
         <v>13</v>
@@ -9905,11 +9958,12 @@
         <v>95</v>
       </c>
       <c r="X83" s="50"/>
-    </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="55"/>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B84" s="45"/>
       <c r="C84" s="40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D84" s="64">
         <v>13</v>
@@ -9972,11 +10026,12 @@
         <v>95</v>
       </c>
       <c r="X84" s="50"/>
-    </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="55"/>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B85" s="45"/>
       <c r="C85" s="40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D85" s="64">
         <v>13</v>
@@ -10039,11 +10094,12 @@
         <v>95</v>
       </c>
       <c r="X85" s="50"/>
-    </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="55"/>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B86" s="45"/>
       <c r="C86" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D86" s="64">
         <v>13</v>
@@ -10106,11 +10162,12 @@
         <v>95</v>
       </c>
       <c r="X86" s="50"/>
-    </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="55"/>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B87" s="45"/>
       <c r="C87" s="40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D87" s="64">
         <v>13</v>
@@ -10173,11 +10230,12 @@
         <v>95</v>
       </c>
       <c r="X87" s="50"/>
-    </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="55"/>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B88" s="45"/>
       <c r="C88" s="40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D88" s="64">
         <v>13</v>
@@ -10240,11 +10298,12 @@
         <v>95</v>
       </c>
       <c r="X88" s="50"/>
-    </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="55"/>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B89" s="45"/>
       <c r="C89" s="40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D89" s="64">
         <v>13</v>
@@ -10307,11 +10366,12 @@
         <v>95</v>
       </c>
       <c r="X89" s="50"/>
-    </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="55"/>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B90" s="45"/>
       <c r="C90" s="40" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D90" s="64">
         <v>13</v>
@@ -10374,11 +10434,12 @@
         <v>95</v>
       </c>
       <c r="X90" s="50"/>
-    </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="55"/>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B91" s="45"/>
       <c r="C91" s="40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D91" s="64">
         <v>15</v>
@@ -10441,11 +10502,12 @@
         <v>90</v>
       </c>
       <c r="X91" s="50"/>
-    </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="55"/>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B92" s="45"/>
       <c r="C92" s="40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D92" s="64">
         <v>15</v>
@@ -10508,11 +10570,12 @@
         <v>90</v>
       </c>
       <c r="X92" s="50"/>
-    </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="55"/>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B93" s="45"/>
       <c r="C93" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D93" s="64">
         <v>15</v>
@@ -10575,11 +10638,12 @@
         <v>90</v>
       </c>
       <c r="X93" s="50"/>
-    </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="55"/>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B94" s="45"/>
       <c r="C94" s="40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D94" s="64">
         <v>15</v>
@@ -10642,11 +10706,12 @@
         <v>90</v>
       </c>
       <c r="X94" s="50"/>
-    </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="55"/>
+    </row>
+    <row r="95" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B95" s="45"/>
       <c r="C95" s="40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D95" s="64">
         <v>15</v>
@@ -10709,11 +10774,12 @@
         <v>90</v>
       </c>
       <c r="X95" s="50"/>
-    </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="55"/>
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B96" s="45"/>
       <c r="C96" s="40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D96" s="64">
         <v>15</v>
@@ -10776,11 +10842,12 @@
         <v>90</v>
       </c>
       <c r="X96" s="50"/>
-    </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="55"/>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B97" s="45"/>
       <c r="C97" s="40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D97" s="64">
         <v>15</v>
@@ -10843,11 +10910,12 @@
         <v>90</v>
       </c>
       <c r="X97" s="50"/>
-    </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="55"/>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B98" s="45"/>
       <c r="C98" s="40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D98" s="64">
         <v>15</v>
@@ -10910,11 +10978,12 @@
         <v>90</v>
       </c>
       <c r="X98" s="50"/>
-    </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="55"/>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B99" s="45"/>
       <c r="C99" s="40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D99" s="64">
         <v>15</v>
@@ -10977,11 +11046,12 @@
         <v>90</v>
       </c>
       <c r="X99" s="50"/>
-    </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="55"/>
+    </row>
+    <row r="100" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B100" s="45"/>
       <c r="C100" s="40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D100" s="64">
         <v>15</v>
@@ -11044,8 +11114,9 @@
         <v>90</v>
       </c>
       <c r="X100" s="50"/>
-    </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="55"/>
+    </row>
+    <row r="101" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B101" s="45"/>
       <c r="C101" s="40"/>
       <c r="D101" s="64"/>
@@ -11069,8 +11140,9 @@
       <c r="V101" s="39"/>
       <c r="W101" s="14"/>
       <c r="X101" s="50"/>
-    </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="55"/>
+    </row>
+    <row r="102" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
       <c r="D102" s="49"/>
@@ -11119,7 +11191,7 @@
   <dimension ref="B2:Z75"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11177,12 +11249,12 @@
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -11205,12 +11277,12 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -11313,7 +11385,7 @@
       <c r="B8" s="46"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>28</v>
@@ -11325,13 +11397,13 @@
         <v>30</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>15</v>
@@ -11364,13 +11436,13 @@
         <v>37</v>
       </c>
       <c r="U8" s="37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V8" s="37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W8" s="37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="X8" s="50"/>
     </row>
@@ -11380,7 +11452,7 @@
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>5</v>
@@ -11442,12 +11514,8 @@
       <c r="X9" s="50"/>
     </row>
     <row r="10" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="98" t="s">
-        <v>221</v>
-      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="63"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -11473,7 +11541,7 @@
     <row r="11" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="47"/>
       <c r="C11" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D11" s="64">
         <v>30</v>
@@ -11541,7 +11609,7 @@
     <row r="12" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="47"/>
       <c r="C12" s="40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D12" s="64">
         <v>24</v>
@@ -11609,7 +11677,7 @@
     <row r="13" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="47"/>
       <c r="C13" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D13" s="64">
         <v>11</v>
@@ -11677,7 +11745,7 @@
     <row r="14" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="47"/>
       <c r="C14" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D14" s="64">
         <v>2</v>
@@ -11745,7 +11813,7 @@
     <row r="15" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="47"/>
       <c r="C15" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D15" s="64">
         <v>8</v>
@@ -11813,7 +11881,7 @@
     <row r="16" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="47"/>
       <c r="C16" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D16" s="64">
         <v>5</v>
@@ -11881,7 +11949,7 @@
     <row r="17" spans="2:26" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="47"/>
       <c r="C17" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D17" s="64">
         <v>1</v>
@@ -11949,7 +12017,7 @@
     <row r="18" spans="2:26" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="47"/>
       <c r="C18" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D18" s="64">
         <v>13</v>
@@ -12017,7 +12085,7 @@
     <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="45"/>
       <c r="C19" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D19" s="64">
         <v>15</v>
@@ -13584,7 +13652,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -13609,20 +13677,20 @@
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G5" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="10"/>
@@ -13633,13 +13701,13 @@
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
       <c r="F6" s="40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I6" s="91"/>
       <c r="J6" s="94"/>
@@ -13650,13 +13718,13 @@
       <c r="D7" s="91"/>
       <c r="E7" s="91"/>
       <c r="F7" s="40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I7" s="91"/>
       <c r="J7" s="94"/>
@@ -13667,13 +13735,13 @@
       <c r="D8" s="91"/>
       <c r="E8" s="91"/>
       <c r="F8" s="40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G8" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I8" s="91"/>
       <c r="J8" s="94"/>
@@ -13684,13 +13752,13 @@
       <c r="D9" s="91"/>
       <c r="E9" s="91"/>
       <c r="F9" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G9" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I9" s="91"/>
       <c r="J9" s="94"/>
@@ -13701,13 +13769,13 @@
       <c r="D10" s="91"/>
       <c r="E10" s="91"/>
       <c r="F10" s="40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G10" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I10" s="91"/>
       <c r="J10" s="94"/>
@@ -13718,13 +13786,13 @@
       <c r="D11" s="91"/>
       <c r="E11" s="91"/>
       <c r="F11" s="40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G11" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I11" s="91"/>
       <c r="J11" s="94"/>
@@ -13735,13 +13803,13 @@
       <c r="D12" s="91"/>
       <c r="E12" s="91"/>
       <c r="F12" s="40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G12" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I12" s="91"/>
       <c r="J12" s="94"/>
@@ -13752,13 +13820,13 @@
       <c r="D13" s="91"/>
       <c r="E13" s="91"/>
       <c r="F13" s="40" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G13" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I13" s="91"/>
       <c r="J13" s="94"/>
@@ -13769,13 +13837,13 @@
       <c r="D14" s="91"/>
       <c r="E14" s="91"/>
       <c r="F14" s="40" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G14" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I14" s="91"/>
       <c r="J14" s="94"/>
@@ -13786,13 +13854,13 @@
       <c r="D15" s="91"/>
       <c r="E15" s="91"/>
       <c r="F15" s="40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G15" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I15" s="91"/>
       <c r="J15" s="94"/>
@@ -13803,13 +13871,13 @@
       <c r="D16" s="91"/>
       <c r="E16" s="91"/>
       <c r="F16" s="40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I16" s="91"/>
       <c r="J16" s="94"/>
@@ -13820,13 +13888,13 @@
       <c r="D17" s="91"/>
       <c r="E17" s="91"/>
       <c r="F17" s="40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G17" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I17" s="91"/>
       <c r="J17" s="94"/>
@@ -13837,13 +13905,13 @@
       <c r="D18" s="91"/>
       <c r="E18" s="91"/>
       <c r="F18" s="40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G18" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I18" s="91"/>
       <c r="J18" s="94"/>
@@ -13854,13 +13922,13 @@
       <c r="D19" s="91"/>
       <c r="E19" s="91"/>
       <c r="F19" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G19" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I19" s="91"/>
       <c r="J19" s="94"/>
@@ -13871,13 +13939,13 @@
       <c r="D20" s="91"/>
       <c r="E20" s="91"/>
       <c r="F20" s="40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I20" s="91"/>
       <c r="J20" s="94"/>
@@ -13888,13 +13956,13 @@
       <c r="D21" s="91"/>
       <c r="E21" s="91"/>
       <c r="F21" s="40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G21" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I21" s="91"/>
       <c r="J21" s="94"/>
@@ -13905,13 +13973,13 @@
       <c r="D22" s="91"/>
       <c r="E22" s="91"/>
       <c r="F22" s="40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G22" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I22" s="91"/>
       <c r="J22" s="94"/>
@@ -13922,13 +13990,13 @@
       <c r="D23" s="91"/>
       <c r="E23" s="91"/>
       <c r="F23" s="40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G23" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I23" s="91"/>
       <c r="J23" s="94"/>
@@ -13939,13 +14007,13 @@
       <c r="D24" s="91"/>
       <c r="E24" s="91"/>
       <c r="F24" s="40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G24" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I24" s="91"/>
       <c r="J24" s="94"/>
@@ -13956,13 +14024,13 @@
       <c r="D25" s="91"/>
       <c r="E25" s="91"/>
       <c r="F25" s="40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G25" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I25" s="91"/>
       <c r="J25" s="94"/>
@@ -13973,13 +14041,13 @@
       <c r="D26" s="91"/>
       <c r="E26" s="91"/>
       <c r="F26" s="40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I26" s="91"/>
       <c r="J26" s="94"/>
@@ -13990,13 +14058,13 @@
       <c r="D27" s="91"/>
       <c r="E27" s="91"/>
       <c r="F27" s="40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G27" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I27" s="91"/>
       <c r="J27" s="94"/>
@@ -14007,13 +14075,13 @@
       <c r="D28" s="91"/>
       <c r="E28" s="91"/>
       <c r="F28" s="40" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G28" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I28" s="91"/>
       <c r="J28" s="94"/>
@@ -14024,13 +14092,13 @@
       <c r="D29" s="91"/>
       <c r="E29" s="91"/>
       <c r="F29" s="40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G29" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I29" s="91"/>
       <c r="J29" s="94"/>
@@ -14041,13 +14109,13 @@
       <c r="D30" s="91"/>
       <c r="E30" s="91"/>
       <c r="F30" s="40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I30" s="91"/>
       <c r="J30" s="94"/>
@@ -14058,13 +14126,13 @@
       <c r="D31" s="91"/>
       <c r="E31" s="91"/>
       <c r="F31" s="40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G31" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I31" s="91"/>
       <c r="J31" s="94"/>
@@ -14075,13 +14143,13 @@
       <c r="D32" s="91"/>
       <c r="E32" s="91"/>
       <c r="F32" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G32" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I32" s="91"/>
       <c r="J32" s="94"/>
@@ -14092,13 +14160,13 @@
       <c r="D33" s="91"/>
       <c r="E33" s="91"/>
       <c r="F33" s="40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G33" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I33" s="91"/>
       <c r="J33" s="94"/>
@@ -14109,13 +14177,13 @@
       <c r="D34" s="91"/>
       <c r="E34" s="91"/>
       <c r="F34" s="40" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G34" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I34" s="91"/>
       <c r="J34" s="94"/>
@@ -14126,13 +14194,13 @@
       <c r="D35" s="91"/>
       <c r="E35" s="91"/>
       <c r="F35" s="40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G35" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I35" s="91"/>
       <c r="J35" s="94"/>
@@ -14143,13 +14211,13 @@
       <c r="D36" s="91"/>
       <c r="E36" s="91"/>
       <c r="F36" s="40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G36" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I36" s="91"/>
       <c r="J36" s="94"/>
@@ -14160,13 +14228,13 @@
       <c r="D37" s="91"/>
       <c r="E37" s="91"/>
       <c r="F37" s="40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G37" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I37" s="91"/>
       <c r="J37" s="94"/>
@@ -14177,13 +14245,13 @@
       <c r="D38" s="91"/>
       <c r="E38" s="91"/>
       <c r="F38" s="40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G38" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I38" s="91"/>
       <c r="J38" s="94"/>
@@ -14194,13 +14262,13 @@
       <c r="D39" s="91"/>
       <c r="E39" s="91"/>
       <c r="F39" s="40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G39" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I39" s="91"/>
       <c r="J39" s="94"/>
@@ -14211,13 +14279,13 @@
       <c r="D40" s="91"/>
       <c r="E40" s="91"/>
       <c r="F40" s="40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G40" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I40" s="91"/>
       <c r="J40" s="94"/>
@@ -14228,13 +14296,13 @@
       <c r="D41" s="91"/>
       <c r="E41" s="91"/>
       <c r="F41" s="40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G41" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I41" s="91"/>
       <c r="J41" s="94"/>
@@ -14245,13 +14313,13 @@
       <c r="D42" s="91"/>
       <c r="E42" s="91"/>
       <c r="F42" s="40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G42" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I42" s="91"/>
       <c r="J42" s="94"/>
@@ -14262,13 +14330,13 @@
       <c r="D43" s="91"/>
       <c r="E43" s="91"/>
       <c r="F43" s="40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G43" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I43" s="91"/>
       <c r="J43" s="94"/>
@@ -14279,13 +14347,13 @@
       <c r="D44" s="91"/>
       <c r="E44" s="91"/>
       <c r="F44" s="40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G44" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I44" s="91"/>
       <c r="J44" s="94"/>
@@ -14296,13 +14364,13 @@
       <c r="D45" s="91"/>
       <c r="E45" s="91"/>
       <c r="F45" s="40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G45" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I45" s="91"/>
       <c r="J45" s="94"/>
@@ -14313,13 +14381,13 @@
       <c r="D46" s="91"/>
       <c r="E46" s="91"/>
       <c r="F46" s="40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G46" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I46" s="91"/>
       <c r="J46" s="94"/>
@@ -14330,13 +14398,13 @@
       <c r="D47" s="91"/>
       <c r="E47" s="91"/>
       <c r="F47" s="40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G47" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I47" s="91"/>
       <c r="J47" s="94"/>
@@ -14347,13 +14415,13 @@
       <c r="D48" s="91"/>
       <c r="E48" s="91"/>
       <c r="F48" s="40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G48" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I48" s="91"/>
       <c r="J48" s="94"/>
@@ -14364,13 +14432,13 @@
       <c r="D49" s="91"/>
       <c r="E49" s="91"/>
       <c r="F49" s="40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G49" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I49" s="91"/>
       <c r="J49" s="94"/>
@@ -14381,13 +14449,13 @@
       <c r="D50" s="91"/>
       <c r="E50" s="91"/>
       <c r="F50" s="40" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G50" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I50" s="91"/>
       <c r="J50" s="94"/>
@@ -14398,13 +14466,13 @@
       <c r="D51" s="91"/>
       <c r="E51" s="91"/>
       <c r="F51" s="40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G51" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I51" s="91"/>
       <c r="J51" s="94"/>
@@ -14415,13 +14483,13 @@
       <c r="D52" s="91"/>
       <c r="E52" s="91"/>
       <c r="F52" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G52" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I52" s="91"/>
       <c r="J52" s="94"/>
@@ -14432,13 +14500,13 @@
       <c r="D53" s="91"/>
       <c r="E53" s="91"/>
       <c r="F53" s="40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G53" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I53" s="91"/>
       <c r="J53" s="94"/>
@@ -14449,13 +14517,13 @@
       <c r="D54" s="91"/>
       <c r="E54" s="91"/>
       <c r="F54" s="40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G54" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I54" s="91"/>
       <c r="J54" s="94"/>
@@ -14466,13 +14534,13 @@
       <c r="D55" s="91"/>
       <c r="E55" s="91"/>
       <c r="F55" s="40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G55" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I55" s="91"/>
       <c r="J55" s="94"/>
@@ -14483,13 +14551,13 @@
       <c r="D56" s="91"/>
       <c r="E56" s="91"/>
       <c r="F56" s="40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G56" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I56" s="91"/>
       <c r="J56" s="94"/>
@@ -14500,13 +14568,13 @@
       <c r="D57" s="91"/>
       <c r="E57" s="91"/>
       <c r="F57" s="40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G57" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I57" s="91"/>
       <c r="J57" s="94"/>
@@ -14517,13 +14585,13 @@
       <c r="D58" s="91"/>
       <c r="E58" s="91"/>
       <c r="F58" s="40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G58" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I58" s="91"/>
       <c r="J58" s="94"/>
@@ -14534,13 +14602,13 @@
       <c r="D59" s="91"/>
       <c r="E59" s="91"/>
       <c r="F59" s="40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G59" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I59" s="91"/>
       <c r="J59" s="94"/>
@@ -14551,13 +14619,13 @@
       <c r="D60" s="91"/>
       <c r="E60" s="91"/>
       <c r="F60" s="40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G60" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I60" s="91"/>
       <c r="J60" s="94"/>
@@ -14568,13 +14636,13 @@
       <c r="D61" s="91"/>
       <c r="E61" s="91"/>
       <c r="F61" s="40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G61" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I61" s="91"/>
       <c r="J61" s="94"/>
@@ -14585,13 +14653,13 @@
       <c r="D62" s="91"/>
       <c r="E62" s="91"/>
       <c r="F62" s="40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G62" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I62" s="91"/>
       <c r="J62" s="94"/>
@@ -14602,13 +14670,13 @@
       <c r="D63" s="91"/>
       <c r="E63" s="91"/>
       <c r="F63" s="40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G63" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I63" s="91"/>
       <c r="J63" s="94"/>
@@ -14619,13 +14687,13 @@
       <c r="D64" s="91"/>
       <c r="E64" s="91"/>
       <c r="F64" s="40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G64" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I64" s="91"/>
       <c r="J64" s="94"/>
@@ -14636,13 +14704,13 @@
       <c r="D65" s="91"/>
       <c r="E65" s="91"/>
       <c r="F65" s="40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G65" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H65" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I65" s="91"/>
       <c r="J65" s="94"/>
@@ -14653,13 +14721,13 @@
       <c r="D66" s="91"/>
       <c r="E66" s="91"/>
       <c r="F66" s="40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G66" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I66" s="91"/>
       <c r="J66" s="94"/>
@@ -14670,13 +14738,13 @@
       <c r="D67" s="91"/>
       <c r="E67" s="91"/>
       <c r="F67" s="40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G67" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I67" s="91"/>
       <c r="J67" s="94"/>
@@ -14687,13 +14755,13 @@
       <c r="D68" s="91"/>
       <c r="E68" s="91"/>
       <c r="F68" s="40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G68" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I68" s="91"/>
       <c r="J68" s="94"/>
@@ -14704,13 +14772,13 @@
       <c r="D69" s="91"/>
       <c r="E69" s="91"/>
       <c r="F69" s="40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G69" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H69" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I69" s="91"/>
       <c r="J69" s="94"/>
@@ -14721,13 +14789,13 @@
       <c r="D70" s="91"/>
       <c r="E70" s="91"/>
       <c r="F70" s="40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G70" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H70" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I70" s="91"/>
       <c r="J70" s="94"/>
@@ -14738,13 +14806,13 @@
       <c r="D71" s="91"/>
       <c r="E71" s="91"/>
       <c r="F71" s="40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G71" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I71" s="91"/>
       <c r="J71" s="94"/>
@@ -14755,13 +14823,13 @@
       <c r="D72" s="91"/>
       <c r="E72" s="91"/>
       <c r="F72" s="40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G72" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I72" s="91"/>
       <c r="J72" s="94"/>
@@ -14772,13 +14840,13 @@
       <c r="D73" s="91"/>
       <c r="E73" s="91"/>
       <c r="F73" s="40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G73" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I73" s="91"/>
       <c r="J73" s="94"/>
@@ -14789,13 +14857,13 @@
       <c r="D74" s="91"/>
       <c r="E74" s="91"/>
       <c r="F74" s="40" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G74" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H74" s="40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I74" s="91"/>
       <c r="J74" s="94"/>
@@ -14806,13 +14874,13 @@
       <c r="D75" s="91"/>
       <c r="E75" s="91"/>
       <c r="F75" s="40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G75" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H75" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I75" s="91"/>
       <c r="J75" s="94"/>
@@ -14823,13 +14891,13 @@
       <c r="D76" s="91"/>
       <c r="E76" s="91"/>
       <c r="F76" s="40" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H76" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I76" s="91"/>
       <c r="J76" s="94"/>
@@ -14840,13 +14908,13 @@
       <c r="D77" s="91"/>
       <c r="E77" s="91"/>
       <c r="F77" s="40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G77" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H77" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I77" s="91"/>
       <c r="J77" s="94"/>
@@ -14857,13 +14925,13 @@
       <c r="D78" s="91"/>
       <c r="E78" s="91"/>
       <c r="F78" s="40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G78" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I78" s="91"/>
       <c r="J78" s="94"/>
@@ -14874,13 +14942,13 @@
       <c r="D79" s="91"/>
       <c r="E79" s="91"/>
       <c r="F79" s="40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G79" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I79" s="91"/>
       <c r="J79" s="94"/>
@@ -14891,13 +14959,13 @@
       <c r="D80" s="91"/>
       <c r="E80" s="91"/>
       <c r="F80" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G80" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H80" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I80" s="91"/>
       <c r="J80" s="94"/>
@@ -14908,13 +14976,13 @@
       <c r="D81" s="91"/>
       <c r="E81" s="91"/>
       <c r="F81" s="40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G81" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I81" s="91"/>
       <c r="J81" s="94"/>
@@ -14925,13 +14993,13 @@
       <c r="D82" s="91"/>
       <c r="E82" s="91"/>
       <c r="F82" s="40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G82" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I82" s="91"/>
       <c r="J82" s="94"/>
@@ -14942,13 +15010,13 @@
       <c r="D83" s="91"/>
       <c r="E83" s="91"/>
       <c r="F83" s="40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G83" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H83" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I83" s="91"/>
       <c r="J83" s="94"/>
@@ -14959,13 +15027,13 @@
       <c r="D84" s="91"/>
       <c r="E84" s="91"/>
       <c r="F84" s="40" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G84" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H84" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I84" s="91"/>
       <c r="J84" s="94"/>
@@ -14976,13 +15044,13 @@
       <c r="D85" s="91"/>
       <c r="E85" s="91"/>
       <c r="F85" s="40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G85" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I85" s="91"/>
       <c r="J85" s="94"/>
@@ -14993,13 +15061,13 @@
       <c r="D86" s="91"/>
       <c r="E86" s="91"/>
       <c r="F86" s="40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G86" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I86" s="91"/>
       <c r="J86" s="94"/>
@@ -15010,13 +15078,13 @@
       <c r="D87" s="91"/>
       <c r="E87" s="91"/>
       <c r="F87" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G87" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I87" s="91"/>
       <c r="J87" s="94"/>
@@ -15027,13 +15095,13 @@
       <c r="D88" s="91"/>
       <c r="E88" s="91"/>
       <c r="F88" s="40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G88" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I88" s="91"/>
       <c r="J88" s="94"/>
@@ -15044,13 +15112,13 @@
       <c r="D89" s="91"/>
       <c r="E89" s="91"/>
       <c r="F89" s="40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G89" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I89" s="91"/>
       <c r="J89" s="94"/>
@@ -15061,13 +15129,13 @@
       <c r="D90" s="91"/>
       <c r="E90" s="91"/>
       <c r="F90" s="40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G90" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I90" s="91"/>
       <c r="J90" s="94"/>
@@ -15078,13 +15146,13 @@
       <c r="D91" s="91"/>
       <c r="E91" s="91"/>
       <c r="F91" s="40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G91" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I91" s="91"/>
       <c r="J91" s="94"/>
@@ -15095,13 +15163,13 @@
       <c r="D92" s="91"/>
       <c r="E92" s="91"/>
       <c r="F92" s="40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G92" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I92" s="91"/>
       <c r="J92" s="94"/>
@@ -15112,13 +15180,13 @@
       <c r="D93" s="91"/>
       <c r="E93" s="91"/>
       <c r="F93" s="40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G93" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I93" s="91"/>
       <c r="J93" s="94"/>
@@ -15129,13 +15197,13 @@
       <c r="D94" s="91"/>
       <c r="E94" s="91"/>
       <c r="F94" s="40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G94" s="100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I94" s="91"/>
       <c r="J94" s="94"/>
@@ -15179,7 +15247,7 @@
   <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15225,7 +15293,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="68"/>
       <c r="B2" s="67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -15263,16 +15331,16 @@
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
       <c r="H4" s="89" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" s="89" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K4" s="89" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L4" s="75"/>
       <c r="M4" s="74"/>
@@ -15283,18 +15351,18 @@
         <v>12</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="79"/>
       <c r="E5" s="80" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="80" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I5" s="80" t="s">
         <v>9</v>
@@ -15315,13 +15383,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="64">
         <v>2</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" s="64">
         <v>1</v>
@@ -15348,13 +15416,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="64">
         <v>3</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G7" s="64">
         <v>1</v>
@@ -15381,13 +15449,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" s="64">
         <v>4</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8" s="64">
         <v>1</v>
@@ -15414,13 +15482,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="64">
         <v>4</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" s="64">
         <v>1</v>
@@ -15447,13 +15515,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="64">
         <v>5</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="64">
         <v>1</v>
@@ -15480,13 +15548,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="64">
         <v>6</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="64">
         <v>1</v>
@@ -15513,13 +15581,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="64">
         <v>6</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" s="64">
         <v>1</v>
@@ -15546,13 +15614,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="64">
         <v>7</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="64">
         <v>1</v>
@@ -15579,13 +15647,13 @@
         <v>6</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" s="64">
         <v>7</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G14" s="64">
         <v>1</v>
@@ -15612,13 +15680,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="64">
         <v>8</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G15" s="64">
         <v>1</v>
@@ -15645,13 +15713,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="64">
         <v>9</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16" s="64">
         <v>1</v>
@@ -15678,13 +15746,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17" s="64">
         <v>10</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G17" s="64">
         <v>1</v>
@@ -15711,13 +15779,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" s="64">
         <v>11</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G18" s="64">
         <v>1</v>
@@ -15744,13 +15812,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="64">
         <v>10</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G19" s="64">
         <v>1</v>
@@ -15777,13 +15845,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20" s="64">
         <v>12</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G20" s="64">
         <v>1</v>
@@ -15810,13 +15878,13 @@
         <v>12</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E21" s="64">
         <v>13</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G21" s="64">
         <v>1</v>
@@ -15843,13 +15911,13 @@
         <v>12</v>
       </c>
       <c r="D22" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" s="64">
         <v>14</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G22" s="64">
         <v>1</v>
@@ -15876,13 +15944,13 @@
         <v>12</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E23" s="64">
         <v>15</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G23" s="64">
         <v>1</v>
@@ -15909,13 +15977,13 @@
         <v>12</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E24" s="64">
         <v>16</v>
       </c>
       <c r="F24" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G24" s="64">
         <v>1</v>
@@ -15942,13 +16010,13 @@
         <v>14</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" s="64">
         <v>15</v>
       </c>
       <c r="F25" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G25" s="64">
         <v>1</v>
@@ -15975,13 +16043,13 @@
         <v>16</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E26" s="64">
         <v>17</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G26" s="64">
         <v>1</v>
@@ -16008,13 +16076,13 @@
         <v>15</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="64">
         <v>18</v>
       </c>
       <c r="F27" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G27" s="64">
         <v>1</v>
@@ -16041,13 +16109,13 @@
         <v>18</v>
       </c>
       <c r="D28" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E28" s="64">
         <v>19</v>
       </c>
       <c r="F28" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G28" s="64">
         <v>1</v>
@@ -16074,13 +16142,13 @@
         <v>19</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E29" s="64">
         <v>20</v>
       </c>
       <c r="F29" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G29" s="64">
         <v>1</v>
@@ -16107,13 +16175,13 @@
         <v>10</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30" s="64">
         <v>20</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G30" s="64">
         <v>1</v>
@@ -16140,13 +16208,13 @@
         <v>10</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E31" s="64">
         <v>17</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G31" s="64">
         <v>1</v>
@@ -16173,13 +16241,13 @@
         <v>10</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E32" s="64">
         <v>21</v>
       </c>
       <c r="F32" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G32" s="64">
         <v>1</v>
@@ -16206,13 +16274,13 @@
         <v>10</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33" s="64">
         <v>22</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G33" s="64">
         <v>1</v>
@@ -16239,13 +16307,13 @@
         <v>21</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E34" s="64">
         <v>22</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G34" s="64">
         <v>1</v>
@@ -16272,13 +16340,13 @@
         <v>15</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E35" s="64">
         <v>23</v>
       </c>
       <c r="F35" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G35" s="64">
         <v>1</v>
@@ -16305,13 +16373,13 @@
         <v>22</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E36" s="64">
         <v>24</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G36" s="64">
         <v>1</v>
@@ -16338,13 +16406,13 @@
         <v>23</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E37" s="64">
         <v>24</v>
       </c>
       <c r="F37" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G37" s="64">
         <v>1</v>
@@ -16371,13 +16439,13 @@
         <v>24</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E38" s="64">
         <v>25</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G38" s="64">
         <v>1</v>
@@ -16404,13 +16472,13 @@
         <v>25</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E39" s="64">
         <v>26</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G39" s="64">
         <v>1</v>
@@ -16437,13 +16505,13 @@
         <v>25</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E40" s="64">
         <v>27</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G40" s="64">
         <v>1</v>
@@ -16470,13 +16538,13 @@
         <v>28</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E41" s="64">
         <v>27</v>
       </c>
       <c r="F41" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G41" s="64">
         <v>1</v>
@@ -16503,13 +16571,13 @@
         <v>27</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E42" s="64">
         <v>29</v>
       </c>
       <c r="F42" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G42" s="64">
         <v>1</v>
@@ -16536,13 +16604,13 @@
         <v>27</v>
       </c>
       <c r="D43" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E43" s="64">
         <v>30</v>
       </c>
       <c r="F43" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G43" s="64">
         <v>1</v>
@@ -16569,13 +16637,13 @@
         <v>29</v>
       </c>
       <c r="D44" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E44" s="64">
         <v>30</v>
       </c>
       <c r="F44" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G44" s="64">
         <v>1</v>
@@ -16602,13 +16670,13 @@
         <v>8</v>
       </c>
       <c r="D45" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E45" s="64">
         <v>28</v>
       </c>
       <c r="F45" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G45" s="64">
         <v>1</v>
@@ -16635,13 +16703,13 @@
         <v>6</v>
       </c>
       <c r="D46" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E46" s="64">
         <v>28</v>
       </c>
       <c r="F46" s="64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G46" s="64">
         <v>1</v>
